--- a/MagicKeyboard解析資料.xlsx
+++ b/MagicKeyboard解析資料.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugihara\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sugihara\Git\Apple-Keyboard-Bridge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0071557F-624A-447A-B3B5-C1071EDDBC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7263626E-D078-4FC8-85CC-C08A15037883}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="16080" windowWidth="34800" windowHeight="21240" activeTab="1" xr2:uid="{BC84F12D-8999-49E4-B6AA-6AA4C92C3721}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{BC84F12D-8999-49E4-B6AA-6AA4C92C3721}"/>
   </bookViews>
   <sheets>
-    <sheet name="VKEY" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="VKEY一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="BOOTCAMP環境" sheetId="2" r:id="rId2"/>
+    <sheet name="Not BootCamp環境" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="277">
   <si>
     <t>vkey</t>
     <phoneticPr fontId="1"/>
@@ -123,9 +124,6 @@
   </si>
   <si>
     <t>#define VK_KANJI          0x19</t>
-  </si>
-  <si>
-    <t>#define VK_ESCAPE         0x1B</t>
   </si>
   <si>
     <t>#define VK_CONVERT        0x1C</t>
@@ -855,6 +853,118 @@
   </si>
   <si>
     <t>FN+CAPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ESC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FN+ESC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FN+DEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOT CAMP環境以外の場合はFnキーを全く認識できないようです</t>
+    <rPh sb="9" eb="11">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕方がないのでシフト+DELキーでDELETEが実装できるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>シカタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左シフト＋DEL</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右シフト+DEL</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←VK_SHIFT + KEY_DOWN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←VK_SHIFT + KEY_UP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←VK_BACK + KEY_DOWN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←VK_BACK + KEY_UP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHIFT+ESCは？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左シフト＋ESC</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右シフト＋ESC</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#define VK_ESCAPE         0x1B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←VK_ESCAPE + KEY_DOWN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←VK_ESCAPE + KEY_UP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1231,11 +1341,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF27F77-021E-440D-A183-CFAC855A4AAB}">
   <dimension ref="B4:B269"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="77.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1412,107 +1522,107 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="2:2">
@@ -1522,17 +1632,17 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -1542,17 +1652,17 @@
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="2:2">
@@ -1562,7 +1672,7 @@
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="2:2">
@@ -1572,207 +1682,207 @@
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="2:2">
@@ -1782,7 +1892,7 @@
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="2:2">
@@ -1792,12 +1902,12 @@
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="2:2">
@@ -1807,7 +1917,7 @@
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="136" spans="2:2">
@@ -1817,7 +1927,7 @@
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="2:2">
@@ -1827,7 +1937,7 @@
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="2:2">
@@ -1837,27 +1947,27 @@
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="2:2">
@@ -1867,7 +1977,7 @@
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="2:2">
@@ -1882,17 +1992,17 @@
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="2:2">
@@ -1902,32 +2012,32 @@
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="2:2">
@@ -1937,92 +2047,92 @@
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="185" spans="2:2">
@@ -2037,7 +2147,7 @@
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="2:2">
@@ -2047,37 +2157,37 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="2:2">
@@ -2087,7 +2197,7 @@
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="201" spans="2:2">
@@ -2102,7 +2212,7 @@
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="2:2">
@@ -2112,27 +2222,27 @@
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="2:2">
@@ -2142,7 +2252,7 @@
     </row>
     <row r="214" spans="2:2">
       <c r="B214" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="215" spans="2:2">
@@ -2157,7 +2267,7 @@
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="2:2">
@@ -2167,42 +2277,42 @@
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="2:2">
       <c r="B222" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="2:2">
       <c r="B223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225" spans="2:2">
       <c r="B225" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" spans="2:2">
       <c r="B227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232" spans="2:2">
@@ -2212,7 +2322,7 @@
     </row>
     <row r="233" spans="2:2">
       <c r="B233" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="2:2">
@@ -2227,7 +2337,7 @@
     </row>
     <row r="237" spans="2:2">
       <c r="B237" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="238" spans="2:2">
@@ -2242,7 +2352,7 @@
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="242" spans="2:2">
@@ -2252,112 +2362,112 @@
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="244" spans="2:2">
       <c r="B244" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="2:2">
       <c r="B257" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="267" spans="2:2">
@@ -2367,7 +2477,7 @@
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="269" spans="2:2">
@@ -2386,148 +2496,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA33F2A-0043-420A-81BB-7B9300BCAFA1}">
   <dimension ref="C4:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="4" spans="3:27">
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="3:27">
       <c r="C5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="3:27">
       <c r="C6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="3:27">
       <c r="C9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="3:27">
       <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
         <v>197</v>
       </c>
-      <c r="L10" t="s">
+      <c r="V10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="3:27" ht="19">
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" t="s">
         <v>198</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" ht="19">
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="3:27" ht="19.5">
-      <c r="C11" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA12" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" ht="19.5">
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="L12" t="s">
-        <v>220</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="13" spans="3:27">
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="3:27">
       <c r="L14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="3:27">
       <c r="L15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="3:27">
       <c r="V16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="3:22">
       <c r="C18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="3:22">
       <c r="C19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="3:22">
       <c r="C20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="3:22">
       <c r="C21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V21" t="s">
         <v>1</v>
@@ -2535,7 +2645,7 @@
     </row>
     <row r="22" spans="3:22">
       <c r="V22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="3:22">
@@ -2545,208 +2655,472 @@
     </row>
     <row r="24" spans="3:22">
       <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
         <v>229</v>
-      </c>
-      <c r="L24" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25" spans="3:22">
       <c r="C25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="3:22">
       <c r="C26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="3:22">
       <c r="V28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="3:22">
       <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
         <v>243</v>
       </c>
-      <c r="L29" t="s">
-        <v>244</v>
-      </c>
       <c r="V29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="3:22">
       <c r="C30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="3:22">
       <c r="C31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="3:12">
       <c r="C41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="3:12">
       <c r="C42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="3:12">
       <c r="C43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="3:12">
       <c r="C46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="3:12">
       <c r="C47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="3:12">
       <c r="C48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="3:12">
       <c r="C49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="3:12">
       <c r="C52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="3:12">
       <c r="C53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="3:12">
       <c r="C54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="3:12">
       <c r="C55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="3:12">
       <c r="C58" t="s">
+        <v>256</v>
+      </c>
+      <c r="L58" t="s">
         <v>257</v>
-      </c>
-      <c r="L58" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="59" spans="3:12">
       <c r="C59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="3:12">
       <c r="C60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="3:12">
       <c r="C61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L61" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61698A8A-9CA2-4A09-89BE-827E43FFAD7A}">
+  <dimension ref="B3:U54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="M9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="M14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="M15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="13:21">
+      <c r="M17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="13:21">
+      <c r="M18" t="s">
+        <v>263</v>
+      </c>
+      <c r="N18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="13:21">
+      <c r="M19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="13:21">
+      <c r="M21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="13:21">
+      <c r="M22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="13:21">
+      <c r="M23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="13:21">
+      <c r="M24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="13:21">
+      <c r="M25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="13:21">
+      <c r="M26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="13:21">
+      <c r="M28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="13:21">
+      <c r="M29" t="s">
+        <v>240</v>
+      </c>
+      <c r="U29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="13:21">
+      <c r="M30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="13:21">
+      <c r="M31" t="s">
+        <v>225</v>
+      </c>
+      <c r="U31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="13:21">
+      <c r="M32" t="s">
+        <v>226</v>
+      </c>
+      <c r="U32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="13:21">
+      <c r="M33" t="s">
+        <v>241</v>
+      </c>
+      <c r="U33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="13:21">
+      <c r="M38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="13:21">
+      <c r="M40" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="13:21">
+      <c r="M41" t="s">
+        <v>190</v>
+      </c>
+      <c r="U41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="13:21">
+      <c r="M42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="13:21">
+      <c r="M43" t="s">
+        <v>193</v>
+      </c>
+      <c r="U43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="13:21">
+      <c r="M44" t="s">
+        <v>194</v>
+      </c>
+      <c r="U44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="13:21">
+      <c r="M45" t="s">
+        <v>227</v>
+      </c>
+      <c r="U45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="13:21">
+      <c r="M49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="13:21">
+      <c r="M50" t="s">
+        <v>240</v>
+      </c>
+      <c r="U50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="13:21">
+      <c r="M51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="13:21">
+      <c r="M52" t="s">
+        <v>193</v>
+      </c>
+      <c r="U52" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="13:21">
+      <c r="M53" t="s">
+        <v>194</v>
+      </c>
+      <c r="U53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="13:21">
+      <c r="M54" t="s">
+        <v>241</v>
+      </c>
+      <c r="U54" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
